--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabrina.fontanella/PyCharmPrograms/clinica/clinica/iotools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simona.bottani/clinica/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27260" yWindow="-1440" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="938">
   <si>
     <t>Field</t>
   </si>
@@ -2857,6 +2857,15 @@
   </si>
   <si>
     <t>aibl_neurobat_28-Apr-2015.csv</t>
+  </si>
+  <si>
+    <t>CDGLOBAL</t>
+  </si>
+  <si>
+    <t>aibl_cdr_28-Apr-2015.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3109,60 +3118,60 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="55">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5837,6 +5846,174 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13246100" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13246100" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13246100" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15590,14 +15767,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N430"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="70.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.83203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="9" customWidth="1"/>
@@ -15605,7 +15782,8 @@
     <col min="6" max="6" width="65.6640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="36" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="9" customWidth="1"/>
-    <col min="9" max="11" width="17.83203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="31" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="21.5" style="9" customWidth="1"/>
     <col min="13" max="13" width="39.5" style="9" customWidth="1"/>
     <col min="14" max="14" width="30.6640625" style="9" customWidth="1"/>
@@ -15677,6 +15855,9 @@
       <c r="D3" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>937</v>
+      </c>
       <c r="G3" s="9" t="s">
         <v>127</v>
       </c>
@@ -15733,6 +15914,12 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20106,7 +20293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="34020" windowHeight="19900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="936">
   <si>
     <t>Field</t>
   </si>
@@ -2857,12 +2857,6 @@
   </si>
   <si>
     <t>aibl_neurobat_28-Apr-2015.csv</t>
-  </si>
-  <si>
-    <t>CDGLOBAL</t>
-  </si>
-  <si>
-    <t>aibl_cdr_28-Apr-2015.csv</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -6014,6 +6008,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13246100" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6282,7 +6332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1021"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -15768,8 +15818,8 @@
   <dimension ref="A1:N430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15856,7 +15906,7 @@
         <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>127</v>
@@ -15914,12 +15964,6 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="34020" windowHeight="19900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="34020" windowHeight="19900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="939">
   <si>
     <t>Field</t>
   </si>
@@ -2860,6 +2860,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>cdr_global</t>
+  </si>
+  <si>
+    <t>CDGLOBAL</t>
+  </si>
+  <si>
+    <t>aibl_cdr_28-Apr-2015.csv</t>
   </si>
 </sst>
 </file>
@@ -6064,6 +6073,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13246100" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6332,8 +6397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1021"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15815,11 +15880,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N430"/>
+  <dimension ref="A1:N431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15963,112 +16028,118 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>936</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>907</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="J20" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>69</v>
@@ -16077,15 +16148,15 @@
         <v>76</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>69</v>
@@ -16094,84 +16165,90 @@
         <v>76</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>858</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>858</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>860</v>
+        <v>102</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>96</v>
@@ -16179,35 +16256,35 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="9" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>851</v>
@@ -16215,71 +16292,68 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>852</v>
+        <v>114</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>859</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16287,4043 +16361,4057 @@
         <v>859</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>859</v>
+      </c>
       <c r="B43" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>854</v>
+        <v>866</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="9" t="s">
+      <c r="D48" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>96</v>
+        <v>485</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="M56" s="18"/>
     </row>
     <row r="57" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="M59" s="18"/>
+    </row>
+    <row r="60" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="M59" s="18"/>
-    </row>
-    <row r="60" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="20" t="s">
+      <c r="M60" s="18"/>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
         <v>887</v>
       </c>
-      <c r="M60" s="18"/>
-    </row>
-    <row r="61" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="21" t="s">
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="M61" s="19"/>
-    </row>
-    <row r="62" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
-        <v>889</v>
-      </c>
-      <c r="M62" s="18"/>
+      <c r="M62" s="19"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M63" s="18"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
+        <v>890</v>
+      </c>
+      <c r="M64" s="18"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="20" t="s">
         <v>891</v>
       </c>
-      <c r="M64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
+      <c r="M65" s="18"/>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G77" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G79" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>76</v>
+        <v>501</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>76</v>
+        <v>614</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G233" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G235" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G236" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G237" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G238" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G240" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G241" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G242" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="243" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="245" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G245" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="246" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="247" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G247" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="248" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G248" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="249" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G249" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="250" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="251" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G251" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="252" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="253" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G253" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="254" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G254" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="255" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G255" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="256" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G256" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="257" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G257" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="258" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G258" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="259" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="260" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G260" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="261" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="262" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G262" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="263" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="264" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="265" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G265" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="266" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="267" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="268" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G268" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="269" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="270" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="271" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="272" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="273" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="274" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="275" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="276" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="277" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="278" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="279" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="280" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="281" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="282" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G282" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="283" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G283" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="284" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="285" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="286" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G286" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="287" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G287" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="288" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="289" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G289" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="290" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="291" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="292" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G292" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="293" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G293" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="294" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G294" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="295" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="296" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G296" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="297" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G297" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="298" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="299" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G299" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="300" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G300" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="301" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G301" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="302" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G302" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="303" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G303" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="304" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G304" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="305" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="306" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G306" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="307" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G307" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="308" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G308" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="309" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G309" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="310" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G310" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="311" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G311" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="312" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G312" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="313" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G313" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="314" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G314" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="315" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G315" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="316" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G316" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="317" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G317" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="318" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G318" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="319" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G319" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="320" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G320" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="321" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="322" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="323" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="324" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G324" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="325" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="326" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G326" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="327" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G327" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="328" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G328" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="329" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G329" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="330" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G330" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="331" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G331" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="332" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G332" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="333" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G333" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="334" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G334" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="335" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G335" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="336" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G336" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="337" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G337" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="338" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G338" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="339" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G339" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="340" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G340" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="341" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G341" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="342" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G342" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="343" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G343" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="344" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G344" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="345" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G345" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="346" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G346" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="347" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G347" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="348" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G348" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="349" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G349" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="350" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G350" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="351" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G351" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="352" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G352" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="353" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G353" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="354" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G354" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="355" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G355" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="356" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G356" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="357" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G357" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="358" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G358" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="359" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G359" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="360" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G360" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="361" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G361" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="362" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D362" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G362" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="363" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D363" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G363" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="364" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G364" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="365" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G365" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="366" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G366" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="367" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G367" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="368" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G368" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="369" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G369" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="370" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G370" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="371" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G371" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="372" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G372" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="373" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G373" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="374" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G374" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="375" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G375" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="376" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G376" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="377" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G377" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="378" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G378" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="379" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G379" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="380" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G380" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="381" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G381" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="382" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G382" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="383" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G383" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="384" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G384" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="385" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G385" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="386" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G386" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="387" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G387" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="388" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G388" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="389" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G389" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="390" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G390" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="391" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G391" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="392" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G392" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="393" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G393" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="394" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G394" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="395" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G395" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="396" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G396" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="397" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G397" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="398" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G398" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="399" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G399" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="400" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G400" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="401" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G401" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="402" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G402" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="403" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G403" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="404" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G404" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="405" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G405" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="406" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G406" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="407" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G407" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="408" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D408" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G408" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="409" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G409" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="410" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G410" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="411" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G411" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="412" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G412" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="413" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G413" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="414" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G414" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="415" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D415" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G415" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="416" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D416" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G416" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="417" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G417" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="418" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G418" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="419" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G419" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="420" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G420" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="421" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G421" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="422" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G422" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="423" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G423" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="424" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G424" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="425" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G425" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="426" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="9" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G426" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="427" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G427" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="428" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G428" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="429" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G429" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="430" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G430" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="431" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="D430" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G430" s="9" t="s">
+      <c r="D431" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G431" s="9" t="s">
         <v>484</v>
       </c>
     </row>
